--- a/Filebeat/Filebeat-数据字典文档-V1.0.0.xlsx
+++ b/Filebeat/Filebeat-数据字典文档-V1.0.0.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17925" windowHeight="8700" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
     <sheet name="res" sheetId="3" r:id="rId2"/>
-    <sheet name="template字段模板" sheetId="2" r:id="rId3"/>
+    <sheet name="ip" sheetId="4" r:id="rId3"/>
+    <sheet name="template字段模板" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -391,6 +392,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -406,23 +430,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -436,31 +444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,16 +472,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,6 +497,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -528,6 +522,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,18 +543,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -561,12 +550,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +579,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,25 +711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,91 +723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,32 +734,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -780,6 +755,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -797,9 +811,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,21 +834,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -841,10 +842,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,133 +854,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,8 +1336,8 @@
   <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2038,7 +2039,7 @@
   <sheetPr/>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16:H17"/>
     </sheetView>
   </sheetViews>
@@ -3047,6 +3048,685 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="6" width="53.5" customWidth="1"/>
+    <col min="8" max="8" width="47.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:H3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:H39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:H43"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Filebeat/Filebeat-数据字典文档-V1.0.0.xlsx
+++ b/Filebeat/Filebeat-数据字典文档-V1.0.0.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17925" windowHeight="8700" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
     <sheet name="res" sheetId="3" r:id="rId2"/>
-    <sheet name="template字段模板" sheetId="2" r:id="rId3"/>
+    <sheet name="ip" sheetId="4" r:id="rId3"/>
+    <sheet name="template字段模板" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -389,6 +390,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -397,9 +421,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,67 +520,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,45 +529,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,13 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +561,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +585,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,19 +627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,25 +645,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,85 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,65 +734,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -820,6 +762,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -833,6 +808,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -841,10 +842,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,133 +854,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,7 +1337,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B15"/>
+      <selection activeCell="A1" sqref="A1:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2038,7 +2039,7 @@
   <sheetPr/>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16:H17"/>
     </sheetView>
   </sheetViews>
@@ -3047,6 +3048,565 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="6" width="53.5" customWidth="1"/>
+    <col min="8" max="8" width="47.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:H3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:H35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Filebeat/Filebeat-数据字典文档-V1.0.0.xlsx
+++ b/Filebeat/Filebeat-数据字典文档-V1.0.0.xlsx
@@ -3051,7 +3051,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F19"/>
+      <selection activeCell="E30" sqref="E30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3311,21 +3311,13 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
@@ -3339,21 +3331,13 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
@@ -3367,21 +3351,13 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
@@ -3395,21 +3371,13 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
@@ -3423,17 +3391,11 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -3449,21 +3411,13 @@
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
@@ -3477,21 +3431,13 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
@@ -3505,21 +3451,13 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">

--- a/Filebeat/Filebeat-数据字典文档-V1.0.0.xlsx
+++ b/Filebeat/Filebeat-数据字典文档-V1.0.0.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
     <sheet name="res" sheetId="3" r:id="rId2"/>
     <sheet name="ip" sheetId="4" r:id="rId3"/>
     <sheet name="template字段模板" sheetId="2" r:id="rId4"/>
+    <sheet name="nginx" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -391,7 +392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,15 +400,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,17 +414,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,7 +429,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -453,10 +437,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,15 +466,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,8 +482,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,6 +512,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -543,7 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,25 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,91 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +592,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,13 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,26 +738,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,8 +782,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,7 +792,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,28 +812,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,10 +843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,133 +855,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,6 +989,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -996,24 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1347,600 +1348,600 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="84">
@@ -2050,864 +2051,864 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="9" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="8" t="s">
+      <c r="F40" s="3"/>
+      <c r="G40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="8" t="s">
+      <c r="F44" s="3"/>
+      <c r="G44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="128">
@@ -3050,7 +3051,7 @@
   <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30:F31"/>
     </sheetView>
   </sheetViews>
@@ -3061,414 +3062,414 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -3557,230 +3558,230 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -3817,4 +3818,563 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="6" width="53.5" customWidth="1"/>
+    <col min="8" max="8" width="47.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:H3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:H35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>